--- a/template/samplep1.xlsx
+++ b/template/samplep1.xlsx
@@ -1,8 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD0C881F-222E-4D9A-9C86-4D0C07BD16A1}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +141,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -150,21 +151,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -372,118 +358,92 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -824,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -833,335 +793,371 @@
     <col min="2" max="3" width="7.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-    </row>
-    <row r="2" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+    </row>
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="E2" s="7"/>
-    </row>
-    <row r="3" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="6"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="E3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B4" s="8"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A5" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="6"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="D5" s="5" t="s">
+      <c r="B5" s="6"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="G5" s="5" t="s">
+      <c r="E5" s="6"/>
+      <c r="G5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A7" s="5" t="s">
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:11" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="D7" s="5" t="s">
+      <c r="B7" s="6"/>
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="G7" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="9"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="9"/>
+      <c r="H8" s="7"/>
       <c r="I8" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="10" t="s">
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="14"/>
-    </row>
-    <row r="11" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
+      <c r="B10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="E11" s="10" t="s">
+      <c r="B11" s="11"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    </row>
+    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="E12" s="10" t="s">
+      <c r="B12" s="11"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A13" s="10"/>
-      <c r="B13" s="14"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
+    </row>
+    <row r="13" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A13" s="8"/>
+      <c r="B13" s="11"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="14"/>
-      <c r="E14" s="10" t="s">
+      <c r="B14" s="11"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+    </row>
+    <row r="15" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="E15" s="10" t="s">
+      <c r="B15" s="11"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
+    </row>
+    <row r="16" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="E16" s="10" t="s">
+      <c r="B16" s="11"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="10" t="s">
+    </row>
+    <row r="17" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="E17" s="10" t="s">
+      <c r="B17" s="11"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="10" t="s">
+    </row>
+    <row r="18" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="E18" s="12" t="s">
+      <c r="B18" s="11"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.25" x14ac:dyDescent="0.35">
-      <c r="A19" s="10" t="s">
+    </row>
+    <row r="19" spans="1:11" ht="17.25" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="D19" s="11"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="15"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="29"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="29"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="29"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="20"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="29"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="20"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="29"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="18"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="20"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="29"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="21"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="23"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="32"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="35"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="36"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="38"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="29"/>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A33" s="36"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="38"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="29"/>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A34" s="36"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
-      <c r="D34" s="38"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="29"/>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A35" s="36"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="38"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="29"/>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A36" s="36"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="38"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="29"/>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A37" s="36"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="38"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="29"/>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A38" s="39"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="41"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31"/>
-      <c r="I38" s="32"/>
+      <c r="B19" s="11"/>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="21" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="16"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="18"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="34"/>
+    </row>
+    <row r="22" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="19"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="21"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="21"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="21"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="34"/>
+    </row>
+    <row r="27" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="21"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="34"/>
+    </row>
+    <row r="28" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="24"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+    </row>
+    <row r="31" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="25"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+    </row>
+    <row r="32" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="28"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="34"/>
+    </row>
+    <row r="33" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="28"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="34"/>
+      <c r="K33" s="34"/>
+    </row>
+    <row r="34" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="28"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="28"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="34"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="28"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="34"/>
+      <c r="K36" s="34"/>
+    </row>
+    <row r="37" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="28"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="30"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+    </row>
+    <row r="38" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="34"/>
+      <c r="K38" s="34"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
@@ -1188,9 +1184,9 @@
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A42" s="42"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="44"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1201,9 +1197,9 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A43" s="42"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="44"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1214,9 +1210,9 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A44" s="42"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="44"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1227,9 +1223,9 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A45" s="42"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
@@ -1257,15 +1253,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A21:D28"/>
+    <mergeCell ref="A31:D38"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F21:K28"/>
+    <mergeCell ref="F31:K38"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
     <mergeCell ref="A44:C44"/>
     <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F21:I28"/>
-    <mergeCell ref="F31:I38"/>
-    <mergeCell ref="A21:D28"/>
-    <mergeCell ref="A31:D38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/samplep1.xlsx
+++ b/template/samplep1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D478A2C4-6B25-40B6-859D-223E18ED8B91}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B098B236-28D9-4136-B143-BD8E4847DF8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9270" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -173,7 +173,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -338,24 +338,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -437,33 +424,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -482,21 +474,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,7 +782,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.25"/>
@@ -829,27 +806,27 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -858,9 +835,9 @@
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
@@ -876,9 +853,9 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
@@ -894,9 +871,9 @@
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -912,9 +889,9 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -930,9 +907,9 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
@@ -948,9 +925,9 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
@@ -962,9 +939,9 @@
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -981,7 +958,7 @@
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8" ht="22.15" customHeight="1">
       <c r="A12" s="16"/>
@@ -991,7 +968,7 @@
       <c r="E12" s="16"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="22.15" customHeight="1">
       <c r="A13" s="16"/>
@@ -1001,7 +978,7 @@
       <c r="E13" s="16"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="22.15" customHeight="1">
       <c r="A14" s="16"/>
@@ -1011,7 +988,7 @@
       <c r="E14" s="16"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="17"/>
     </row>
     <row r="15" spans="1:8" ht="22.15" customHeight="1">
       <c r="A15" s="16"/>
@@ -1021,7 +998,7 @@
       <c r="E15" s="16"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="22.15" customHeight="1">
       <c r="A16" s="16"/>
@@ -1031,7 +1008,7 @@
       <c r="E16" s="16"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
+      <c r="H16" s="17"/>
     </row>
     <row r="17" spans="1:8" ht="22.15" customHeight="1">
       <c r="A17" s="16"/>
@@ -1041,7 +1018,7 @@
       <c r="E17" s="16"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="22.15" customHeight="1">
       <c r="A18" s="16"/>
@@ -1051,7 +1028,7 @@
       <c r="E18" s="16"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
+      <c r="H18" s="17"/>
     </row>
     <row r="19" spans="1:8" ht="22.15" customHeight="1">
       <c r="A19" s="16"/>
@@ -1061,7 +1038,7 @@
       <c r="E19" s="16"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
+      <c r="H19" s="17"/>
     </row>
     <row r="20" spans="1:8" ht="22.15" customHeight="1">
       <c r="A20" s="16"/>
@@ -1071,7 +1048,7 @@
       <c r="E20" s="16"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
+      <c r="H20" s="17"/>
     </row>
     <row r="21" spans="1:8" ht="22.15" customHeight="1">
       <c r="A21" s="16"/>
@@ -1081,7 +1058,7 @@
       <c r="E21" s="16"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
+      <c r="H21" s="17"/>
     </row>
     <row r="22" spans="1:8" ht="22.15" customHeight="1">
       <c r="A22" s="16"/>
@@ -1091,7 +1068,7 @@
       <c r="E22" s="16"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="22.15" customHeight="1">
       <c r="A23" s="18"/>
@@ -1101,7 +1078,7 @@
       <c r="E23" s="18"/>
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="22.15" customHeight="1">
       <c r="A24" s="11"/>
@@ -1118,102 +1095,102 @@
         <v>19</v>
       </c>
       <c r="B25" s="21"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" ht="25.15" customHeight="1">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46"/>
     </row>
     <row r="27" spans="1:8" ht="25.15" customHeight="1">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
     </row>
     <row r="28" spans="1:8" ht="25.15" customHeight="1">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
     </row>
     <row r="29" spans="1:8" ht="25.15" customHeight="1">
       <c r="A29" s="22"/>
       <c r="B29" s="21"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
     </row>
     <row r="30" spans="1:8" ht="25.15" customHeight="1">
       <c r="A30" s="22"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
     </row>
     <row r="31" spans="1:8" ht="25.15" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="21"/>
-      <c r="C31" s="44"/>
-      <c r="D31" s="44"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
     </row>
     <row r="32" spans="1:8" ht="25.15" customHeight="1">
       <c r="A32" s="11"/>
       <c r="B32" s="21"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-      <c r="G32" s="44"/>
-      <c r="H32" s="44"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="46"/>
+      <c r="G32" s="46"/>
+      <c r="H32" s="46"/>
     </row>
     <row r="33" spans="1:8" ht="25.15" customHeight="1">
       <c r="A33" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="45" t="s">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="45"/>
-      <c r="G33" s="45"/>
-      <c r="H33" s="45"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
     </row>
     <row r="34" spans="1:8" ht="25.15" customHeight="1">
       <c r="A34" s="11"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="24"/>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
@@ -1223,9 +1200,9 @@
       <c r="A35" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
       <c r="E35" s="24"/>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -1233,9 +1210,9 @@
     </row>
     <row r="36" spans="1:8" ht="25.15" customHeight="1">
       <c r="A36" s="11"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -1245,9 +1222,9 @@
       <c r="A37" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1258,16 +1235,16 @@
       <c r="B38" s="25"/>
       <c r="C38" s="25"/>
       <c r="D38" s="25"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="25.15" customHeight="1">
       <c r="A39" s="24"/>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
       <c r="E39" s="24"/>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -1277,13 +1254,13 @@
       <c r="A40" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="51"/>
-      <c r="F40" s="51"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="34"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="36"/>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" spans="1:8" ht="25.15" customHeight="1">
       <c r="A41" s="27" t="s">
@@ -1295,7 +1272,7 @@
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
-      <c r="H41" s="35" t="s">
+      <c r="H41" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1309,7 +1286,7 @@
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
-      <c r="H42" s="36"/>
+      <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="25.15" customHeight="1">
       <c r="A43" s="27"/>
@@ -1319,7 +1296,7 @@
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="36"/>
+      <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="25.15" customHeight="1">
       <c r="A44" s="28"/>
@@ -1331,7 +1308,7 @@
       <c r="G44" s="29"/>
       <c r="H44" s="29"/>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" ht="28.5" customHeight="1">
       <c r="A45" s="30" t="s">
         <v>25</v>
       </c>
@@ -1353,7 +1330,7 @@
       <c r="G45" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H45" s="37"/>
+      <c r="H45" s="39"/>
     </row>
     <row r="46" spans="1:8" ht="49.9" customHeight="1">
       <c r="A46" s="26"/>
@@ -1363,7 +1340,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
-      <c r="H46" s="52"/>
+      <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="49.9" customHeight="1">
       <c r="A47" s="26"/>
@@ -1373,7 +1350,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
-      <c r="H47" s="52"/>
+      <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="49.9" customHeight="1">
       <c r="A48" s="26"/>
@@ -1383,7 +1360,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
-      <c r="H48" s="52"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="2"/>
@@ -1429,8 +1406,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A5A28-F32D-4350-A32A-8FF4420C73D7}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1450,27 +1427,27 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
       <c r="G1" s="41"/>
-      <c r="H1" s="49"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="50"/>
+      <c r="A2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="48"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
     </row>
     <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="7" t="s">
@@ -1479,9 +1456,9 @@
       <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1497,9 +1474,9 @@
       <c r="B5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1515,9 +1492,9 @@
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1533,9 +1510,9 @@
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="7" t="s">
         <v>13</v>
       </c>
@@ -1551,9 +1528,9 @@
       <c r="B8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1569,9 +1546,9 @@
       <c r="B9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
@@ -1585,9 +1562,9 @@
     <row r="10" spans="1:8" ht="20.25">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="12"/>
@@ -1596,413 +1573,400 @@
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
+      <c r="B11" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="1:8" ht="20.25">
       <c r="A12" s="11"/>
       <c r="B12" s="22"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
     </row>
     <row r="13" spans="1:8" ht="20.25">
       <c r="A13" s="11"/>
       <c r="B13" s="22"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
     </row>
     <row r="14" spans="1:8" ht="20.25">
       <c r="A14" s="11"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
+      <c r="C14" s="37"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="37"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
     </row>
     <row r="15" spans="1:8" ht="20.25">
       <c r="A15" s="11"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
     </row>
     <row r="16" spans="1:8" ht="20.25">
       <c r="A16" s="11"/>
       <c r="B16" s="22"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="53"/>
-      <c r="H16" s="53"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="1:8" ht="20.25">
       <c r="A17" s="11"/>
       <c r="B17" s="22"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
-      <c r="G17" s="53"/>
-      <c r="H17" s="53"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
     </row>
     <row r="18" spans="1:8" ht="20.25">
       <c r="A18" s="11"/>
       <c r="B18" s="22"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="53"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8" ht="20.25">
       <c r="A19" s="11"/>
       <c r="B19" s="22"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
     </row>
     <row r="20" spans="1:8" ht="20.25">
       <c r="A20" s="11"/>
       <c r="B20" s="22"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" spans="1:8" ht="20.25">
       <c r="A21" s="11"/>
       <c r="B21" s="22"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="1:8" ht="20.25">
       <c r="A22" s="11"/>
       <c r="B22" s="22"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" spans="1:8" ht="20.25">
       <c r="A23" s="11"/>
       <c r="B23" s="22"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="53"/>
-      <c r="G23" s="53"/>
-      <c r="H23" s="53"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" spans="1:8" ht="20.25">
       <c r="A24" s="11"/>
       <c r="B24" s="22"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" spans="1:8" ht="20.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" spans="1:8" ht="20.25">
       <c r="A26" s="24"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="20.25">
       <c r="A27" s="24"/>
-      <c r="B27" s="22"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" spans="1:8" ht="20.25">
       <c r="A28" s="24"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="37"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" spans="1:8" ht="20.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="53"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" spans="1:8" ht="20.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="22"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="53"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" spans="1:8" ht="20.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="53"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="20.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" spans="1:8" ht="20.25">
       <c r="A33" s="32"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-      <c r="G33" s="44"/>
-      <c r="H33" s="44"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" spans="1:8" ht="20.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="44"/>
-      <c r="D34" s="44"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="37"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" spans="1:8" ht="20.25">
       <c r="A35" s="32"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="37"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" spans="1:8" ht="20.25">
       <c r="A36" s="11"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="37"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" spans="1:8" ht="20.25">
       <c r="A37" s="24"/>
-      <c r="B37" s="22"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" spans="1:8" ht="20.25">
       <c r="A38" s="24"/>
-      <c r="B38" s="22"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" spans="1:8" ht="20.25">
       <c r="A39" s="24"/>
-      <c r="B39" s="22"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="44"/>
-      <c r="E39" s="44"/>
-      <c r="F39" s="44"/>
-      <c r="G39" s="44"/>
-      <c r="H39" s="44"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="37"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" ht="20.25">
       <c r="A40" s="24"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="44"/>
-      <c r="D40" s="44"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="37"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="1:8" ht="20.25">
       <c r="A41" s="11"/>
-      <c r="B41" s="22"/>
-      <c r="C41" s="44"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="37"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" ht="20.25">
       <c r="A42" s="28"/>
-      <c r="B42" s="22"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" ht="20.25">
       <c r="A43" s="28"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="44"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="37"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" ht="20.25">
       <c r="A44" s="28"/>
-      <c r="B44" s="22"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="37"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" ht="20.25">
       <c r="A45" s="11"/>
-      <c r="B45" s="22"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="44"/>
-      <c r="G45" s="44"/>
-      <c r="H45" s="44"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="37"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="37"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" ht="20.25">
       <c r="A46" s="33"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="44"/>
-      <c r="H46" s="44"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="37"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" ht="20.25">
       <c r="A47" s="24"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="44"/>
-      <c r="F47" s="44"/>
-      <c r="G47" s="44"/>
-      <c r="H47" s="44"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="37"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="37"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" ht="20.25">
       <c r="A48" s="33"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="37"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
+  <mergeCells count="9">
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C43:H43"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:H36"/>
-    <mergeCell ref="C37:H37"/>
-    <mergeCell ref="C33:H33"/>
-    <mergeCell ref="C34:H34"/>
-    <mergeCell ref="C48:H48"/>
-    <mergeCell ref="C39:H39"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="C47:H47"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/template/samplep1.xlsx
+++ b/template/samplep1.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8D4F4F8-77D6-4CAB-A04C-B25AB3E1FD81}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42484289-8CF8-466C-94CD-100B9B9DA50B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9270" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="第一页" sheetId="130" r:id="rId1"/>
-    <sheet name="第二页" sheetId="131" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="130" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="132" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="28">
   <si>
     <t>客户</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>颜色/尺码</t>
-  </si>
-  <si>
-    <t>軒信办单</t>
   </si>
   <si>
     <t>:</t>
@@ -306,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -340,9 +337,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -362,127 +356,150 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -789,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A22" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:H45"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.25"/>
@@ -805,164 +822,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="40"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="44"/>
+        <v>13</v>
+      </c>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="22.15" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="11"/>
       <c r="E11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -1099,179 +1116,179 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A25" s="41" t="s">
-        <v>17</v>
+      <c r="A25" s="27" t="s">
+        <v>16</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="46"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53"/>
+      <c r="H25" s="54"/>
     </row>
     <row r="26" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A26" s="47"/>
+      <c r="A26" s="32"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="46"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="53"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A27" s="47"/>
+      <c r="A27" s="32"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="46"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="53"/>
+      <c r="H27" s="54"/>
     </row>
     <row r="28" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A28" s="47"/>
+      <c r="A28" s="32"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="46"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="53"/>
+      <c r="H28" s="54"/>
     </row>
     <row r="29" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A29" s="48"/>
+      <c r="A29" s="33"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="46"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="54"/>
     </row>
     <row r="30" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A30" s="48"/>
+      <c r="A30" s="33"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
-      <c r="H30" s="46"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="53"/>
+      <c r="G30" s="53"/>
+      <c r="H30" s="54"/>
     </row>
     <row r="31" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A31" s="48"/>
+      <c r="A31" s="33"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="46"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
+      <c r="H31" s="54"/>
     </row>
     <row r="32" spans="1:8" ht="25.15" customHeight="1">
       <c r="A32" s="12"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
-      <c r="H32" s="46"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
+      <c r="G32" s="53"/>
+      <c r="H32" s="54"/>
     </row>
     <row r="33" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A33" s="49" t="s">
+      <c r="A33" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
-      <c r="E33" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="50"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="62"/>
     </row>
     <row r="34" spans="1:8" ht="25.15" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="51"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A35" s="49" t="s">
-        <v>20</v>
-      </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="51"/>
+      <c r="A35" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="25.15" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="51"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A37" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="29"/>
+      <c r="A37" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="52"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="37"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="54"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="38"/>
     </row>
     <row r="39" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A39" s="53"/>
-      <c r="B39" s="29"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="51"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="53"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A40" s="20"/>
-      <c r="B40" s="24"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="24"/>
-      <c r="H40" s="24" t="s">
-        <v>28</v>
+      <c r="A40" s="19"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A41" s="21"/>
+      <c r="A41" s="20"/>
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
       <c r="D41" s="6"/>
@@ -1281,7 +1298,7 @@
       <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="20"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
@@ -1291,7 +1308,7 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A43" s="21"/>
+      <c r="A43" s="20"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
@@ -1301,41 +1318,41 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A44" s="55"/>
+      <c r="A44" s="39"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
-      <c r="G44" s="22"/>
-      <c r="H44" s="56"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="29.25" customHeight="1">
       <c r="A45" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="G45" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="H45" s="24"/>
+      <c r="H45" s="23"/>
     </row>
     <row r="46" spans="1:8" ht="49.9" customHeight="1">
-      <c r="A46" s="20"/>
+      <c r="A46" s="19"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
@@ -1345,7 +1362,7 @@
       <c r="H46" s="3"/>
     </row>
     <row r="47" spans="1:8" ht="49.9" customHeight="1">
-      <c r="A47" s="20"/>
+      <c r="A47" s="19"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
@@ -1355,7 +1372,7 @@
       <c r="H47" s="3"/>
     </row>
     <row r="48" spans="1:8" ht="49.9" customHeight="1">
-      <c r="A48" s="20"/>
+      <c r="A48" s="19"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
@@ -1405,567 +1422,651 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031A5A28-F32D-4350-A32A-8FF4420C73D7}">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC26CE-4A72-48E5-A574-19C1EEF41DAC}">
+  <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="14.75" customWidth="1"/>
-    <col min="2" max="2" width="10.625" customWidth="1"/>
-    <col min="3" max="8" width="14.75" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="36"/>
+      <c r="A1" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="37"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="38"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="39"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="40"/>
+      <c r="A3" s="64"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="20.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="42"/>
+        <v>13</v>
+      </c>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="27" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="20.25">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" ht="20.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" ht="20.25">
-      <c r="A8" s="41" t="s">
+      <c r="A8" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="43"/>
+        <v>13</v>
+      </c>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" ht="20.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="27" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
+        <v>13</v>
+      </c>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H9" s="43">
-        <v>2</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H9" s="30"/>
     </row>
     <row r="10" spans="1:8" ht="20.25">
       <c r="A10" s="12"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="11" spans="1:8" ht="20.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="57"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" ht="20.25">
       <c r="A12" s="12"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="57"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8" ht="20.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="57"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="20.25">
       <c r="A14" s="12"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="57"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8" ht="20.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="57"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8" ht="20.25">
       <c r="A16" s="12"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="57"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" ht="20.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="57"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" ht="20.25">
       <c r="A18" s="12"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="57"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" ht="20.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="57"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" ht="20.25">
       <c r="A20" s="12"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="57"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" ht="20.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="57"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" ht="20.25">
       <c r="A22" s="12"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="57"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" ht="20.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="57"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" ht="20.25">
       <c r="A24" s="12"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="57"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" ht="20.25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="57"/>
+      <c r="A25" s="27"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="41"/>
     </row>
     <row r="26" spans="1:8" ht="20.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="57"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="41"/>
     </row>
     <row r="27" spans="1:8" ht="20.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="57"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="20.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="57"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="41"/>
     </row>
     <row r="29" spans="1:8" ht="20.25">
-      <c r="A29" s="12"/>
-      <c r="B29" s="25"/>
-      <c r="C29" s="25"/>
-      <c r="D29" s="25"/>
-      <c r="E29" s="25"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="57"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="41"/>
     </row>
     <row r="30" spans="1:8" ht="20.25">
-      <c r="A30" s="12"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="57"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="41"/>
     </row>
     <row r="31" spans="1:8" ht="20.25">
-      <c r="A31" s="12"/>
-      <c r="B31" s="25"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="57"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="41"/>
     </row>
     <row r="32" spans="1:8" ht="20.25">
       <c r="A32" s="12"/>
-      <c r="B32" s="25"/>
-      <c r="C32" s="25"/>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="57"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="41"/>
     </row>
     <row r="33" spans="1:8" ht="20.25">
-      <c r="A33" s="58"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="25"/>
-      <c r="H33" s="57"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="1:8" ht="20.25">
       <c r="A34" s="12"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="25"/>
-      <c r="E34" s="25"/>
-      <c r="F34" s="25"/>
-      <c r="G34" s="25"/>
-      <c r="H34" s="57"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="35"/>
     </row>
     <row r="35" spans="1:8" ht="20.25">
-      <c r="A35" s="58"/>
-      <c r="B35" s="25"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="57"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="35"/>
     </row>
     <row r="36" spans="1:8" ht="20.25">
       <c r="A36" s="12"/>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="25"/>
-      <c r="F36" s="25"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="57"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="35"/>
     </row>
     <row r="37" spans="1:8" ht="20.25">
-      <c r="A37" s="53"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="25"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="25"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="57"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" ht="20.25">
-      <c r="A38" s="53"/>
-      <c r="B38" s="25"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="57"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="35"/>
     </row>
     <row r="39" spans="1:8" ht="20.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="25"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="57"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="1:8" ht="20.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="57"/>
+      <c r="A40" s="46"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="20.25">
-      <c r="A41" s="12"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="57"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="44"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="47"/>
     </row>
     <row r="42" spans="1:8" ht="20.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="57"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="44"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:8" ht="20.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="57"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="48"/>
     </row>
     <row r="44" spans="1:8" ht="20.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="25"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="57"/>
+      <c r="A44" s="39"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="40"/>
     </row>
     <row r="45" spans="1:8" ht="20.25">
-      <c r="A45" s="12"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="57"/>
+      <c r="A45" s="49"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="43"/>
+      <c r="H45" s="40"/>
     </row>
     <row r="46" spans="1:8" ht="20.25">
-      <c r="A46" s="59"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="25"/>
+      <c r="A46" s="46"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="57"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" spans="1:8" ht="20.25">
-      <c r="A47" s="53"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="25"/>
+      <c r="A47" s="46"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="25"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="57"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="50"/>
     </row>
     <row r="48" spans="1:8" ht="20.25">
-      <c r="A48" s="60"/>
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="61"/>
-      <c r="G48" s="61"/>
-      <c r="H48" s="62"/>
+      <c r="A48" s="46"/>
+      <c r="B48" s="45"/>
+      <c r="C48" s="45"/>
+      <c r="D48" s="45"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="45"/>
+      <c r="H48" s="50"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="67"/>
+      <c r="B49" s="68"/>
+      <c r="C49" s="68"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="68"/>
+      <c r="H49" s="69"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="67"/>
+      <c r="B50" s="68"/>
+      <c r="C50" s="68"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="67"/>
+      <c r="B51" s="68"/>
+      <c r="C51" s="68"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="G51" s="68"/>
+      <c r="H51" s="69"/>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="67"/>
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="68"/>
+      <c r="F52" s="68"/>
+      <c r="G52" s="68"/>
+      <c r="H52" s="69"/>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="67"/>
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="68"/>
+      <c r="F53" s="68"/>
+      <c r="G53" s="68"/>
+      <c r="H53" s="69"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="67"/>
+      <c r="B54" s="68"/>
+      <c r="C54" s="68"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="68"/>
+      <c r="F54" s="68"/>
+      <c r="G54" s="68"/>
+      <c r="H54" s="69"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="67"/>
+      <c r="B55" s="68"/>
+      <c r="C55" s="68"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="68"/>
+      <c r="F55" s="68"/>
+      <c r="G55" s="68"/>
+      <c r="H55" s="69"/>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56" s="67"/>
+      <c r="B56" s="68"/>
+      <c r="C56" s="68"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="68"/>
+      <c r="F56" s="68"/>
+      <c r="G56" s="68"/>
+      <c r="H56" s="69"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="70"/>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="71"/>
+      <c r="H57" s="72"/>
     </row>
   </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="B11:D24 A12:A24" name="区域1" securityDescriptor=""/>
+  </protectedRanges>
   <mergeCells count="9">
+    <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/template/samplep1.xlsx
+++ b/template/samplep1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42484289-8CF8-466C-94CD-100B9B9DA50B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500C6E3-4EA0-42A3-A1B9-52132B6A6440}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9270" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,7 +165,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -278,24 +278,55 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -303,7 +334,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -369,21 +400,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
@@ -401,9 +417,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -454,45 +467,8 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -500,6 +476,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -806,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A25" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.25"/>
@@ -822,154 +850,154 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
-      <c r="A10" s="12"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="22.15" customHeight="1">
       <c r="A11" s="9" t="s">
@@ -1106,174 +1134,174 @@
       <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="22.15" customHeight="1">
-      <c r="A24" s="12"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="13"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A25" s="27" t="s">
+      <c r="A25" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="54"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
     </row>
     <row r="26" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A26" s="32"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="54"/>
+      <c r="C26" s="57"/>
+      <c r="D26" s="57"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
     </row>
     <row r="27" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A27" s="32"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="54"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
     </row>
     <row r="28" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A28" s="32"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
-      <c r="G28" s="53"/>
-      <c r="H28" s="54"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
     </row>
     <row r="29" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A29" s="33"/>
+      <c r="A29" s="69"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="53"/>
-      <c r="G29" s="53"/>
-      <c r="H29" s="54"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
     </row>
     <row r="30" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A30" s="33"/>
+      <c r="A30" s="69"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="53"/>
-      <c r="G30" s="53"/>
-      <c r="H30" s="54"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
     </row>
     <row r="31" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A31" s="33"/>
+      <c r="A31" s="69"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="53"/>
-      <c r="G31" s="53"/>
-      <c r="H31" s="54"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
     </row>
     <row r="32" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A32" s="12"/>
+      <c r="A32" s="8"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="54"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
     </row>
     <row r="33" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A33" s="34" t="s">
+      <c r="A33" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="61" t="s">
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="57"/>
+      <c r="E33" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="62"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="58"/>
+      <c r="H33" s="58"/>
     </row>
     <row r="34" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A34" s="12"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
+      <c r="A34" s="8"/>
+      <c r="B34" s="57"/>
+      <c r="C34" s="57"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="18"/>
     </row>
     <row r="36" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
+      <c r="A36" s="8"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="18"/>
     </row>
     <row r="37" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="36"/>
+      <c r="H37" s="7"/>
     </row>
     <row r="38" spans="1:8" ht="25.15" customHeight="1" thickBot="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
+      <c r="A38" s="18"/>
+      <c r="B38" s="48"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
       <c r="E38" s="22"/>
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
-      <c r="H38" s="38"/>
+      <c r="H38" s="22"/>
     </row>
     <row r="39" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
+      <c r="A39" s="18"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="35"/>
+      <c r="H39" s="18"/>
     </row>
     <row r="40" spans="1:8" ht="25.15" customHeight="1">
       <c r="A40" s="19"/>
@@ -1318,14 +1346,14 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A44" s="39"/>
+      <c r="A44" s="71"/>
       <c r="B44" s="8"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="40"/>
+      <c r="H44" s="21"/>
     </row>
     <row r="45" spans="1:8" ht="29.25" customHeight="1">
       <c r="A45" s="5" t="s">
@@ -1389,6 +1417,14 @@
     <protectedRange sqref="B11:D24 A12:A24" name="区域1" securityDescriptor=""/>
   </protectedRanges>
   <mergeCells count="24">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
@@ -1405,14 +1441,6 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1425,161 +1453,161 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CCC26CE-4A72-48E5-A574-19C1EEF41DAC}">
   <dimension ref="A1:H57"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="60"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="64"/>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="66"/>
+      <c r="A3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
     </row>
     <row r="4" spans="1:8" ht="20.25">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="28"/>
+      <c r="H4" s="67"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="29"/>
+      <c r="H5" s="47"/>
     </row>
     <row r="6" spans="1:8" ht="20.25">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="29"/>
+      <c r="H6" s="47"/>
     </row>
     <row r="7" spans="1:8" ht="20.25">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="29"/>
+      <c r="H7" s="47"/>
     </row>
     <row r="8" spans="1:8" ht="20.25">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="29"/>
+      <c r="H8" s="47"/>
     </row>
     <row r="9" spans="1:8" ht="20.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="30"/>
+      <c r="H9" s="68"/>
     </row>
     <row r="10" spans="1:8" ht="20.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="31"/>
+      <c r="H10" s="49"/>
     </row>
     <row r="11" spans="1:8" ht="20.25">
       <c r="A11" s="9" t="s">
@@ -1588,7 +1616,7 @@
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="46"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
       <c r="H11" s="11"/>
@@ -1731,67 +1759,67 @@
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
-      <c r="H25" s="41"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" ht="20.25">
-      <c r="A26" s="32"/>
+      <c r="A26" s="28"/>
       <c r="B26" s="17"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
-      <c r="H26" s="41"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" ht="20.25">
-      <c r="A27" s="32"/>
+      <c r="A27" s="28"/>
       <c r="B27" s="17"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="41"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" spans="1:8" ht="20.25">
-      <c r="A28" s="32"/>
+      <c r="A28" s="28"/>
       <c r="B28" s="17"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="24"/>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
-      <c r="H28" s="41"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="1:8" ht="20.25">
-      <c r="A29" s="33"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="17"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="24"/>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
-      <c r="H29" s="41"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="1:8" ht="20.25">
-      <c r="A30" s="33"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="17"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="24"/>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
-      <c r="H30" s="41"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="1:8" ht="20.25">
-      <c r="A31" s="33"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="17"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="24"/>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
-      <c r="H31" s="41"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" spans="1:8" ht="20.25">
       <c r="A32" s="12"/>
@@ -1801,17 +1829,17 @@
       <c r="E32" s="24"/>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
-      <c r="H32" s="41"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="1:8" ht="20.25">
-      <c r="A33" s="34"/>
+      <c r="A33" s="30"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="36"/>
+      <c r="H33" s="32"/>
     </row>
     <row r="34" spans="1:8" ht="20.25">
       <c r="A34" s="12"/>
@@ -1821,17 +1849,17 @@
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
-      <c r="H34" s="35"/>
+      <c r="H34" s="31"/>
     </row>
     <row r="35" spans="1:8" ht="20.25">
-      <c r="A35" s="34"/>
+      <c r="A35" s="30"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
-      <c r="H35" s="35"/>
+      <c r="H35" s="31"/>
     </row>
     <row r="36" spans="1:8" ht="20.25">
       <c r="A36" s="12"/>
@@ -1841,7 +1869,7 @@
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
-      <c r="H36" s="35"/>
+      <c r="H36" s="31"/>
     </row>
     <row r="37" spans="1:8" ht="20.25">
       <c r="A37" s="27"/>
@@ -1851,207 +1879,207 @@
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
-      <c r="H37" s="36"/>
+      <c r="H37" s="32"/>
     </row>
     <row r="38" spans="1:8" ht="20.25">
-      <c r="A38" s="37"/>
+      <c r="A38" s="33"/>
       <c r="B38" s="26"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
-      <c r="H38" s="35"/>
+      <c r="H38" s="31"/>
     </row>
     <row r="39" spans="1:8" ht="20.25">
-      <c r="A39" s="37"/>
+      <c r="A39" s="33"/>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
-      <c r="H39" s="35"/>
+      <c r="H39" s="31"/>
     </row>
     <row r="40" spans="1:8" ht="20.25">
-      <c r="A40" s="46"/>
+      <c r="A40" s="41"/>
       <c r="B40" s="21"/>
       <c r="C40" s="21"/>
       <c r="D40" s="21"/>
       <c r="E40" s="21"/>
       <c r="F40" s="21"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="40"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="1:8" ht="20.25">
       <c r="A41" s="27"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="43"/>
-      <c r="D41" s="44"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="44"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="47"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="42"/>
     </row>
     <row r="42" spans="1:8" ht="20.25">
       <c r="A42" s="27"/>
-      <c r="B42" s="44"/>
-      <c r="C42" s="44"/>
-      <c r="D42" s="44"/>
-      <c r="E42" s="44"/>
-      <c r="F42" s="44"/>
-      <c r="G42" s="44"/>
-      <c r="H42" s="48"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="43"/>
     </row>
     <row r="43" spans="1:8" ht="20.25">
       <c r="A43" s="27"/>
-      <c r="B43" s="44"/>
-      <c r="C43" s="44"/>
-      <c r="D43" s="44"/>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-      <c r="G43" s="44"/>
-      <c r="H43" s="48"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="39"/>
+      <c r="F43" s="39"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="43"/>
     </row>
     <row r="44" spans="1:8" ht="20.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="34"/>
       <c r="B44" s="8"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="21"/>
       <c r="F44" s="21"/>
       <c r="G44" s="21"/>
-      <c r="H44" s="40"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" spans="1:8" ht="20.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="40"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="35"/>
     </row>
     <row r="46" spans="1:8" ht="20.25">
-      <c r="A46" s="46"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
       <c r="E46" s="25"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="50"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="45"/>
     </row>
     <row r="47" spans="1:8" ht="20.25">
-      <c r="A47" s="46"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="45"/>
-      <c r="D47" s="45"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
       <c r="E47" s="25"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="45"/>
-      <c r="H47" s="50"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="45"/>
     </row>
     <row r="48" spans="1:8" ht="20.25">
-      <c r="A48" s="46"/>
-      <c r="B48" s="45"/>
-      <c r="C48" s="45"/>
-      <c r="D48" s="45"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="45"/>
-      <c r="H48" s="50"/>
+      <c r="A48" s="41"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="37"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="45"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="68"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="68"/>
-      <c r="G49" s="68"/>
-      <c r="H49" s="69"/>
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="52"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="52"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="68"/>
-      <c r="G51" s="68"/>
-      <c r="H51" s="69"/>
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="52"/>
     </row>
     <row r="52" spans="1:8">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="69"/>
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="52"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="68"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="68"/>
-      <c r="G53" s="68"/>
-      <c r="H53" s="69"/>
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="52"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="69"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="52"/>
     </row>
     <row r="55" spans="1:8">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="68"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="68"/>
-      <c r="G55" s="68"/>
-      <c r="H55" s="69"/>
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="52"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="69"/>
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="51"/>
+      <c r="E56" s="51"/>
+      <c r="F56" s="51"/>
+      <c r="G56" s="51"/>
+      <c r="H56" s="52"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
-      <c r="H57" s="72"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="54"/>
+      <c r="C57" s="54"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
+      <c r="F57" s="54"/>
+      <c r="G57" s="54"/>
+      <c r="H57" s="55"/>
     </row>
   </sheetData>
   <protectedRanges>

--- a/template/samplep1.xlsx
+++ b/template/samplep1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\XAMPP\htdocs\home\soft\git\highablePrint\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4500C6E3-4EA0-42A3-A1B9-52132B6A6440}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A7222F1-B973-4E2F-B4D2-C0C92B8D3E1F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="9270" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25425" windowHeight="14040" tabRatio="907" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="130" r:id="rId1"/>
@@ -476,57 +476,57 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -835,7 +835,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="69" zoomScaleNormal="100" zoomScaleSheetLayoutView="69" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="20.25"/>
@@ -850,36 +850,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="12" customHeight="1" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="18" customHeight="1">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="7" t="s">
@@ -888,16 +888,16 @@
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="7" t="s">
@@ -906,9 +906,9 @@
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
@@ -924,9 +924,9 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -942,9 +942,9 @@
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
@@ -960,9 +960,9 @@
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
@@ -978,23 +978,23 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" ht="18" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="49"/>
@@ -1148,114 +1148,114 @@
         <v>16</v>
       </c>
       <c r="B25" s="17"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
     </row>
     <row r="26" spans="1:8" ht="25.15" customHeight="1">
       <c r="A26" s="17"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
     </row>
     <row r="27" spans="1:8" ht="25.15" customHeight="1">
       <c r="A27" s="17"/>
       <c r="B27" s="17"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
     </row>
     <row r="28" spans="1:8" ht="25.15" customHeight="1">
       <c r="A28" s="17"/>
       <c r="B28" s="17"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
     </row>
     <row r="29" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A29" s="69"/>
+      <c r="A29" s="58"/>
       <c r="B29" s="17"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
     </row>
     <row r="30" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A30" s="69"/>
+      <c r="A30" s="58"/>
       <c r="B30" s="17"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
     </row>
     <row r="31" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A31" s="69"/>
+      <c r="A31" s="58"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
     </row>
     <row r="32" spans="1:8" ht="25.15" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
     </row>
     <row r="33" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A33" s="70" t="s">
+      <c r="A33" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="58" t="s">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
-      <c r="H33" s="58"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
     </row>
     <row r="34" spans="1:8" ht="25.15" customHeight="1">
       <c r="A34" s="8"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="57"/>
-      <c r="D34" s="57"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
       <c r="G34" s="18"/>
       <c r="H34" s="18"/>
     </row>
     <row r="35" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A35" s="70" t="s">
+      <c r="A35" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="57"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
       <c r="G35" s="18"/>
@@ -1263,9 +1263,9 @@
     </row>
     <row r="36" spans="1:8" ht="25.15" customHeight="1">
       <c r="A36" s="8"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -1275,9 +1275,9 @@
       <c r="A37" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1295,9 +1295,9 @@
     </row>
     <row r="39" spans="1:8" ht="25.15" customHeight="1">
       <c r="A39" s="18"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="62"/>
+      <c r="D39" s="62"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -1346,7 +1346,7 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" ht="25.15" customHeight="1">
-      <c r="A44" s="71"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="8"/>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
@@ -1416,19 +1416,8 @@
   <protectedRanges>
     <protectedRange sqref="B11:D24 A12:A24" name="区域1" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="24">
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="C29:H29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C31:H31"/>
-    <mergeCell ref="C26:H26"/>
-    <mergeCell ref="C27:H27"/>
-    <mergeCell ref="C28:H28"/>
+  <mergeCells count="21">
     <mergeCell ref="A1:H2"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="B37:D37"/>
     <mergeCell ref="C32:H32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:H33"/>
@@ -1441,6 +1430,14 @@
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="A3:H3"/>
     <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="C29:H29"/>
+    <mergeCell ref="C30:H30"/>
+    <mergeCell ref="C31:H31"/>
+    <mergeCell ref="C26:H26"/>
+    <mergeCell ref="C27:H27"/>
+    <mergeCell ref="C28:H28"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -1460,36 +1457,36 @@
   <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="64"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="15" thickBot="1">
-      <c r="A2" s="65"/>
-      <c r="B2" s="56"/>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="66"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="68"/>
     </row>
     <row r="3" spans="1:8" ht="21">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" ht="20.25">
       <c r="A4" s="7" t="s">
@@ -1498,16 +1495,16 @@
       <c r="B4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="67"/>
+      <c r="H4" s="56"/>
     </row>
     <row r="5" spans="1:8" ht="20.25">
       <c r="A5" s="7" t="s">
@@ -1516,9 +1513,9 @@
       <c r="B5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1534,9 +1531,9 @@
       <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="7" t="s">
         <v>7</v>
       </c>
@@ -1552,9 +1549,9 @@
       <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="7" t="s">
         <v>12</v>
       </c>
@@ -1570,9 +1567,9 @@
       <c r="B8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1588,23 +1585,23 @@
       <c r="B9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="68"/>
+      <c r="H9" s="57"/>
     </row>
     <row r="10" spans="1:8" ht="20.25">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="49"/>
